--- a/biology/Zoologie/Cixiidae/Cixiidae.xlsx
+++ b/biology/Zoologie/Cixiidae/Cixiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cixiidae sont une famille d'insectes hémiptères piqueurs qui vivent essentiellement en zone tropicale.
 Ce sont des espèces phytophages dont une bonne partie sont monophages, inféodées à une seule espèce de plante hôte. Les nymphes de cixiidés se nourrissent de racines.
-Quelques espèces sont cavernicoles[1]
+Quelques espèces sont cavernicoles
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
           <t>Importance économique sur l'agriculture</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En agriculture, les cixiidae peuvent être vecteur de maladies.
 Le phytoplasme est un groupe de bactéries parasites commune sur les cixiidés qui peut être transmis aux cultures lorsqu'elles sont piquées ; c'est parfois le cas sur les palmes de cocotier, la vigne, les betteraves sucrières, la lavande et les lys.
-Exemple : Maladie du bois noir de la vigne provoquée par Hyalesthes obsoletus[2],[3]. 
+Exemple : Maladie du bois noir de la vigne provoquée par Hyalesthes obsoletus,. 
 </t>
         </is>
       </c>
@@ -546,13 +560,50 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe 150 genres et plus de 2 000 espèces de cixiidés.
-Liste des genres
-Andixius (en)
-Selon Catalogue of Life                                   (19 août 2013)[4] :
-genre Achaebana[5]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cixiidae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cixiidae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andixius (en)
+Selon Catalogue of Life                                   (19 août 2013) :
+genre Achaebana
 genre Achaemenes
 genre Adolendana
 genre Afroreptalus
@@ -729,10 +780,10 @@
 genre Wernindia
 genre Yarnikada
 genre Zeoliarus
-Selon ITIS      (19 août 2013)[6] :
+Selon ITIS      (19 août 2013) :
 genre Iolania
 genre Oliarus
-Selon NCBI  (19 août 2013)[7] :
+Selon NCBI  (19 août 2013) :
 genre Achaemenes
 genre Andes
 genre Betacixius
